--- a/src/pipeline/credentials.xlsx
+++ b/src/pipeline/credentials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hema\Documents\OnPrem_to_ADO_Pipeline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hema\Documents\GitHub\DevOpsServer2020TOADO_Migration\src\pipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A50667-E644-4369-B015-450224896FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088A6BC3-34F9-4BBD-95CB-24B607571222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>Base URL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>http://172.191.4.85/DefaultCollection</t>
   </si>
@@ -49,16 +46,52 @@
   </si>
   <si>
     <t>BqV9EbVuxxzXtmzEdtdTfevv1qZ3EQszfR410EtLL0TDvbwxMruhJQQJ99AKACAAAAAyb0Q7AAASAZDOBwc3</t>
+  </si>
+  <si>
+    <t>Source_URL</t>
+  </si>
+  <si>
+    <t>Target_URL</t>
+  </si>
+  <si>
+    <t>https://dev.azure.com/PLMigration</t>
+  </si>
+  <si>
+    <t>hemag</t>
+  </si>
+  <si>
+    <t>repo</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>Target_Pat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -81,16 +114,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -285,54 +325,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32.90625" customWidth="1"/>
+    <col min="2" max="2" width="35.36328125" customWidth="1"/>
     <col min="3" max="3" width="61.36328125" customWidth="1"/>
     <col min="4" max="4" width="23.1796875" customWidth="1"/>
     <col min="5" max="5" width="15.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="99.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://172.191.4.85/" xr:uid="{81C3B48E-B9AB-491A-870B-904A23A7832E}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{C9E8C601-174D-45B8-9D84-22E858A4E55F}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/src/pipeline/credentials.xlsx
+++ b/src/pipeline/credentials.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hema\Documents\GitHub\DevOpsServer2020TOADO_Migration\src\pipeline\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088A6BC3-34F9-4BBD-95CB-24B607571222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
+    <t>Source_URL</t>
+  </si>
+  <si>
+    <t>Source_Username</t>
+  </si>
+  <si>
+    <t>Source_Pat</t>
+  </si>
+  <si>
+    <t>Target_URL</t>
+  </si>
+  <si>
+    <t>Target_Username</t>
+  </si>
+  <si>
+    <t>Target_Pat</t>
+  </si>
+  <si>
+    <t>repo</t>
+  </si>
+  <si>
     <t>http://172.191.4.85/DefaultCollection</t>
   </si>
   <si>
@@ -36,65 +46,43 @@
     <t>xs6mdazt46rfd2iur7nrpmkyprnsnvpxyizehr5yltliv3aaacaa</t>
   </si>
   <si>
-    <t>Source_Username</t>
-  </si>
-  <si>
-    <t>Source_Pat</t>
-  </si>
-  <si>
-    <t>Target_Username</t>
+    <t>https://dev.azure.com/PLMigration</t>
+  </si>
+  <si>
+    <t>hemag</t>
   </si>
   <si>
     <t>BqV9EbVuxxzXtmzEdtdTfevv1qZ3EQszfR410EtLL0TDvbwxMruhJQQJ99AKACAAAAAyb0Q7AAASAZDOBwc3</t>
   </si>
   <si>
-    <t>Source_URL</t>
-  </si>
-  <si>
-    <t>Target_URL</t>
-  </si>
-  <si>
-    <t>https://dev.azure.com/PLMigration</t>
-  </si>
-  <si>
-    <t>hemag</t>
-  </si>
-  <si>
-    <t>repo</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>Target_Pat</t>
+    <t>temp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,7 +93,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -114,33 +109,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -151,10 +148,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -192,128 +189,234 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -324,75 +427,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.90625" customWidth="1"/>
-    <col min="2" max="2" width="35.36328125" customWidth="1"/>
-    <col min="3" max="3" width="61.36328125" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="99.81640625" customWidth="1"/>
+    <col min="1" max="1" style="4" width="32.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="35.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="61.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="99.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://172.191.4.85/" xr:uid="{81C3B48E-B9AB-491A-870B-904A23A7832E}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{C9E8C601-174D-45B8-9D84-22E858A4E55F}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/pipeline/credentials.xlsx
+++ b/src/pipeline/credentials.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hema\Documents\GitHub\DevOpsServer2020TOADO_Migration\src\pipeline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C5B831-A2FF-4981-980E-3944F34CA2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -61,9 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +88,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,35 +122,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -148,10 +166,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -189,71 +207,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -281,7 +299,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -304,11 +322,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -317,13 +335,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -333,7 +351,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -342,7 +360,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,7 +369,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -359,10 +377,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -427,26 +445,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="4" width="32.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="35.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="61.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="99.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="99.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33">
+    <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -479,7 +499,7 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -493,6 +513,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{A13B2A9D-A174-4A94-883F-A4DC33EED0A9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>